--- a/data/Parcelles post traites par geom.xlsx
+++ b/data/Parcelles post traites par geom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\resultat_export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F622EF-DA7F-4BE9-8643-5E8940B842B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EB6DCB-9D85-4226-8074-4B398F68F075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EFE7E202-9C6C-46C2-A9D4-5D77ED987DD3}"/>
+    <workbookView xWindow="42810" yWindow="4095" windowWidth="19200" windowHeight="11175" xr2:uid="{EFE7E202-9C6C-46C2-A9D4-5D77ED987DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
   <si>
     <t>GEOM</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Mariama</t>
   </si>
   <si>
-    <t>MISSIRAH</t>
-  </si>
-  <si>
     <t>LOT</t>
   </si>
   <si>
@@ -103,12 +100,6 @@
   </si>
   <si>
     <t>Bembou</t>
-  </si>
-  <si>
-    <t>Total post traité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
@@ -281,11 +272,35 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -293,32 +308,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE19370-C6DF-4CF2-9D84-C7064051071C}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -707,7 +698,7 @@
       <c r="H2" s="4">
         <v>50</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="18">
         <v>24</v>
       </c>
     </row>
@@ -734,10 +725,10 @@
       <c r="H3" s="4">
         <v>36</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -761,10 +752,10 @@
       <c r="H4" s="4">
         <v>42</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -786,10 +777,10 @@
       <c r="H5" s="4">
         <v>22</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -801,22 +792,22 @@
       <c r="D6" s="5">
         <v>59</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="14">
         <v>143</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="14">
         <v>53</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="14">
         <v>107</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="14">
         <v>36</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -826,14 +817,14 @@
       <c r="D7" s="5">
         <v>84</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -857,10 +848,10 @@
       <c r="H8" s="4">
         <v>28</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
@@ -882,10 +873,10 @@
       <c r="H9" s="4">
         <v>98</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -907,10 +898,10 @@
       <c r="H10" s="4">
         <v>52</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -932,47 +923,47 @@
       <c r="H11" s="4">
         <v>53</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>192</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>154</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>152</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>2</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <v>86</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="16">
         <v>66</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
@@ -999,7 +990,7 @@
       <c r="H14" s="4">
         <v>43</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="18">
         <v>25</v>
       </c>
     </row>
@@ -1028,10 +1019,10 @@
       <c r="H15" s="4">
         <v>46</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1043,22 +1034,22 @@
       <c r="D16" s="5">
         <v>38</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="14">
         <v>108</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="14">
         <v>59</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="14">
         <v>70</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="14">
         <v>38</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
@@ -1068,14 +1059,14 @@
       <c r="D17" s="5">
         <v>70</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="16"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1099,10 +1090,10 @@
       <c r="H18" s="4">
         <v>43</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
@@ -1124,10 +1115,10 @@
       <c r="H19" s="4">
         <v>7</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1151,10 +1142,10 @@
       <c r="H20" s="7">
         <v>72</v>
       </c>
-      <c r="I20" s="16"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
@@ -1176,47 +1167,47 @@
       <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="16">
         <v>118</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="16">
         <v>118</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <v>107</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <v>11</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="16">
         <v>73</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="16">
         <v>34</v>
       </c>
-      <c r="I22" s="16"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
@@ -1243,7 +1234,7 @@
       <c r="H24" s="4">
         <v>47</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="18">
         <v>26</v>
       </c>
     </row>
@@ -1272,10 +1263,10 @@
       <c r="H25" s="4">
         <v>32</v>
       </c>
-      <c r="I25" s="16"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1287,22 +1278,22 @@
       <c r="D26" s="5">
         <v>35</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="14">
         <v>94</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="14">
         <v>48</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="14">
         <v>59</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="14">
         <v>35</v>
       </c>
-      <c r="I26" s="16"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
@@ -1312,14 +1303,14 @@
       <c r="D27" s="5">
         <v>59</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="16"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1343,10 +1334,10 @@
       <c r="H28" s="4">
         <v>2</v>
       </c>
-      <c r="I28" s="16"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
@@ -1368,10 +1359,10 @@
       <c r="H29" s="4">
         <v>26</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1395,10 +1386,10 @@
       <c r="H30" s="7">
         <v>18</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A31" s="12"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
@@ -1420,54 +1411,54 @@
       <c r="H31" s="7">
         <v>30</v>
       </c>
-      <c r="I31" s="16"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="16">
         <v>108</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="16">
         <v>106</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="16">
         <v>52</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="16">
         <v>54</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="16">
         <v>34</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="16">
         <v>18</v>
       </c>
-      <c r="I32" s="16"/>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="21"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="4">
         <v>130</v>
@@ -1487,7 +1478,7 @@
       <c r="H34" s="7">
         <v>50</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="18">
         <v>27</v>
       </c>
     </row>
@@ -1496,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="4">
         <v>61</v>
@@ -1516,14 +1507,14 @@
       <c r="H35" s="4">
         <v>30</v>
       </c>
-      <c r="I35" s="16"/>
+      <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="4">
         <v>111</v>
@@ -1543,14 +1534,14 @@
       <c r="H36" s="4">
         <v>42</v>
       </c>
-      <c r="I36" s="16"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <v>23</v>
@@ -1570,14 +1561,14 @@
       <c r="H37" s="4">
         <v>6</v>
       </c>
-      <c r="I37" s="16"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="5">
         <v>20</v>
@@ -1597,10 +1588,10 @@
       <c r="H38" s="5">
         <v>2</v>
       </c>
-      <c r="I38" s="16"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="19"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="5" t="s">
         <v>11</v>
       </c>
@@ -1622,10 +1613,10 @@
       <c r="H39" s="5">
         <v>10</v>
       </c>
-      <c r="I39" s="16"/>
+      <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="19"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="5" t="s">
         <v>13</v>
       </c>
@@ -1647,14 +1638,14 @@
       <c r="H40" s="5">
         <v>0</v>
       </c>
-      <c r="I40" s="16"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="4">
         <v>109</v>
@@ -1674,7 +1665,7 @@
       <c r="H41" s="7">
         <v>38</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="18">
         <v>28</v>
       </c>
     </row>
@@ -1683,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="4">
         <v>127</v>
@@ -1703,14 +1694,14 @@
       <c r="H42" s="4">
         <v>54</v>
       </c>
-      <c r="I42" s="16"/>
+      <c r="I42" s="18"/>
     </row>
     <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" s="4">
         <v>52</v>
@@ -1730,12 +1721,12 @@
       <c r="H43" s="4">
         <v>15</v>
       </c>
-      <c r="I43" s="16"/>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="4">
         <v>156</v>
@@ -1755,7 +1746,7 @@
       <c r="H44" s="11">
         <v>69</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="18">
         <v>29</v>
       </c>
     </row>
@@ -1764,7 +1755,7 @@
         <v>15</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="4">
         <v>228</v>
@@ -1784,14 +1775,14 @@
       <c r="H45" s="11">
         <v>72</v>
       </c>
-      <c r="I45" s="16"/>
+      <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46" s="4">
         <v>265</v>
@@ -1811,14 +1802,14 @@
       <c r="H46" s="4">
         <v>102</v>
       </c>
-      <c r="I46" s="16"/>
+      <c r="I46" s="18"/>
     </row>
     <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" s="4">
         <v>89</v>
@@ -1838,14 +1829,14 @@
       <c r="H47" s="4">
         <v>43</v>
       </c>
-      <c r="I47" s="16"/>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" s="4">
         <v>241</v>
@@ -1865,12 +1856,12 @@
       <c r="H48" s="4">
         <v>55</v>
       </c>
-      <c r="I48" s="16"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" s="11">
         <v>177</v>
@@ -1890,7 +1881,7 @@
       <c r="H49" s="11">
         <v>57</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="18">
         <v>30</v>
       </c>
     </row>
@@ -1899,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="4">
         <v>185</v>
@@ -1919,14 +1910,14 @@
       <c r="H50" s="11">
         <v>79</v>
       </c>
-      <c r="I50" s="16"/>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" s="4">
         <v>128</v>
@@ -1946,14 +1937,14 @@
       <c r="H51" s="4">
         <v>69</v>
       </c>
-      <c r="I51" s="16"/>
+      <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" s="4">
         <v>57</v>
@@ -1973,14 +1964,14 @@
       <c r="H52" s="4">
         <v>24</v>
       </c>
-      <c r="I52" s="16"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="4">
         <v>192</v>
@@ -2000,14 +1991,14 @@
       <c r="H53" s="4">
         <v>81</v>
       </c>
-      <c r="I53" s="16"/>
+      <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="4">
         <v>57</v>
@@ -2027,14 +2018,14 @@
       <c r="H54" s="4">
         <v>32</v>
       </c>
-      <c r="I54" s="16"/>
+      <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" s="4">
         <v>52</v>
@@ -2054,14 +2045,14 @@
       <c r="H55" s="4">
         <v>14</v>
       </c>
-      <c r="I55" s="16"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" s="4">
         <v>150</v>
@@ -2081,14 +2072,14 @@
       <c r="H56" s="7">
         <v>26</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="18">
         <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="12"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="4">
         <v>115</v>
@@ -2108,14 +2099,14 @@
       <c r="H57" s="7">
         <v>40</v>
       </c>
-      <c r="I57" s="16"/>
+      <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" s="4">
         <v>95</v>
@@ -2135,14 +2126,14 @@
       <c r="H58" s="4">
         <v>18</v>
       </c>
-      <c r="I58" s="16"/>
+      <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" s="4">
         <v>78</v>
@@ -2162,14 +2153,14 @@
       <c r="H59" s="4">
         <v>4</v>
       </c>
-      <c r="I59" s="16"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" s="4">
         <v>44</v>
@@ -2189,14 +2180,14 @@
       <c r="H60" s="4">
         <v>19</v>
       </c>
-      <c r="I60" s="16"/>
+      <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C61" s="4">
         <v>81</v>
@@ -2216,14 +2207,14 @@
       <c r="H61" s="4">
         <v>16</v>
       </c>
-      <c r="I61" s="16"/>
+      <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" s="4">
         <v>353</v>
@@ -2243,14 +2234,14 @@
       <c r="H62" s="7">
         <v>35</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="18">
         <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="12"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" s="4">
         <v>95</v>
@@ -2270,14 +2261,14 @@
       <c r="H63" s="7">
         <v>30</v>
       </c>
-      <c r="I63" s="16"/>
+      <c r="I63" s="18"/>
     </row>
     <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64" s="4">
         <v>244</v>
@@ -2297,14 +2288,14 @@
       <c r="H64" s="4">
         <v>63</v>
       </c>
-      <c r="I64" s="16"/>
+      <c r="I64" s="18"/>
     </row>
     <row r="65" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" s="4">
         <v>113</v>
@@ -2324,14 +2315,14 @@
       <c r="H65" s="4">
         <v>35</v>
       </c>
-      <c r="I65" s="16"/>
+      <c r="I65" s="18"/>
     </row>
     <row r="66" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66" s="4">
         <v>85</v>
@@ -2351,14 +2342,14 @@
       <c r="H66" s="4">
         <v>53</v>
       </c>
-      <c r="I66" s="16"/>
+      <c r="I66" s="18"/>
     </row>
     <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" s="4">
         <v>167</v>
@@ -2378,14 +2369,14 @@
       <c r="H67" s="4">
         <v>119</v>
       </c>
-      <c r="I67" s="16"/>
+      <c r="I67" s="18"/>
     </row>
     <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C68" s="4">
         <v>228</v>
@@ -2405,14 +2396,14 @@
       <c r="H68" s="4">
         <v>47</v>
       </c>
-      <c r="I68" s="16"/>
+      <c r="I68" s="18"/>
     </row>
     <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C69" s="4">
         <v>27</v>
@@ -2432,14 +2423,14 @@
       <c r="H69" s="7">
         <v>13</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="18">
         <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="12"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" s="4">
         <v>76</v>
@@ -2459,12 +2450,12 @@
       <c r="H70" s="7">
         <v>31</v>
       </c>
-      <c r="I70" s="16"/>
+      <c r="I70" s="18"/>
     </row>
     <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="12"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C71" s="4">
         <v>503</v>
@@ -2484,14 +2475,14 @@
       <c r="H71" s="7">
         <v>51</v>
       </c>
-      <c r="I71" s="16"/>
+      <c r="I71" s="18"/>
     </row>
     <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72" s="4">
         <v>367</v>
@@ -2511,14 +2502,14 @@
       <c r="H72" s="4">
         <v>24</v>
       </c>
-      <c r="I72" s="16"/>
+      <c r="I72" s="18"/>
     </row>
     <row r="73" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73" s="4">
         <v>423</v>
@@ -2538,14 +2529,14 @@
       <c r="H73" s="4">
         <v>61</v>
       </c>
-      <c r="I73" s="16"/>
+      <c r="I73" s="18"/>
     </row>
     <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C74" s="4">
         <v>647</v>
@@ -2565,14 +2556,14 @@
       <c r="H74" s="4">
         <v>43</v>
       </c>
-      <c r="I74" s="16"/>
+      <c r="I74" s="18"/>
     </row>
     <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C75" s="4">
         <v>58</v>
@@ -2592,14 +2583,14 @@
       <c r="H75" s="4">
         <v>29</v>
       </c>
-      <c r="I75" s="16"/>
+      <c r="I75" s="18"/>
     </row>
     <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76" s="4">
         <v>27</v>
@@ -2619,14 +2610,14 @@
       <c r="H76" s="7">
         <v>13</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I76" s="18">
         <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="12"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C77" s="4">
         <v>76</v>
@@ -2646,12 +2637,12 @@
       <c r="H77" s="7">
         <v>31</v>
       </c>
-      <c r="I77" s="16"/>
+      <c r="I77" s="18"/>
     </row>
     <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="12"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C78" s="4">
         <v>503</v>
@@ -2671,14 +2662,14 @@
       <c r="H78" s="7">
         <v>51</v>
       </c>
-      <c r="I78" s="16"/>
+      <c r="I78" s="18"/>
     </row>
     <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79" s="4">
         <v>25</v>
@@ -2698,14 +2689,14 @@
       <c r="H79" s="4">
         <v>3</v>
       </c>
-      <c r="I79" s="16"/>
+      <c r="I79" s="18"/>
     </row>
     <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C80" s="4">
         <v>174</v>
@@ -2725,14 +2716,14 @@
       <c r="H80" s="4">
         <v>17</v>
       </c>
-      <c r="I80" s="17"/>
+      <c r="I80" s="24"/>
     </row>
     <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C81" s="4">
         <v>188</v>
@@ -2752,14 +2743,14 @@
       <c r="H81" s="7">
         <v>68</v>
       </c>
-      <c r="I81" s="14">
+      <c r="I81" s="22">
         <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="12"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C82" s="4">
         <v>153</v>
@@ -2779,14 +2770,14 @@
       <c r="H82" s="7">
         <v>51</v>
       </c>
-      <c r="I82" s="15"/>
+      <c r="I82" s="23"/>
     </row>
     <row r="83" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83" s="4">
         <v>173</v>
@@ -2806,14 +2797,14 @@
       <c r="H83" s="4">
         <v>44</v>
       </c>
-      <c r="I83" s="15"/>
+      <c r="I83" s="23"/>
     </row>
     <row r="84" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84" s="4">
         <v>212</v>
@@ -2833,14 +2824,14 @@
       <c r="H84" s="4">
         <v>59</v>
       </c>
-      <c r="I84" s="15"/>
+      <c r="I84" s="23"/>
     </row>
     <row r="85" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C85" s="4">
         <v>220</v>
@@ -2860,12 +2851,12 @@
       <c r="H85" s="4">
         <v>98</v>
       </c>
-      <c r="I85" s="15"/>
+      <c r="I85" s="23"/>
     </row>
     <row r="86" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="13"/>
+      <c r="A86" s="17"/>
       <c r="B86" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C86" s="4">
         <v>135</v>
@@ -2881,14 +2872,14 @@
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="15"/>
+      <c r="I86" s="23"/>
     </row>
     <row r="87" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C87" s="4">
         <v>280</v>
@@ -2908,75 +2899,35 @@
       <c r="H87" s="4">
         <v>48</v>
       </c>
-      <c r="I87" s="15"/>
+      <c r="I87" s="23"/>
     </row>
     <row r="88" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B88" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88">
-        <f>+SUM(C2:C87)</f>
-        <v>12155</v>
-      </c>
-      <c r="D88">
-        <f t="shared" ref="D88:H88" si="0">+SUM(D2:D87)</f>
-        <v>11175</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="0"/>
-        <v>10753</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="0"/>
-        <v>923</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="0"/>
-        <v>7197</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="0"/>
-        <v>3231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="B89" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89">
-        <f>C88+7273</f>
-        <v>19428</v>
-      </c>
+      <c r="B88" s="13"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B89" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="I81:I87"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="I62:I68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="I69:I75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="I76:I80"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="I56:I61"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="I34:I40"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="I49:I55"/>
     <mergeCell ref="I2:I13"/>
     <mergeCell ref="I14:I23"/>
     <mergeCell ref="I24:I33"/>
@@ -2993,25 +2944,33 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="I56:I61"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="I34:I40"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="I49:I55"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="I81:I87"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="I62:I68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="I69:I75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="I76:I80"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Parcelles post traites par geom.xlsx
+++ b/data/Parcelles post traites par geom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EB6DCB-9D85-4226-8074-4B398F68F075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8F8104-3414-4E59-8680-70A97A790A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42810" yWindow="4095" windowWidth="19200" windowHeight="11175" xr2:uid="{EFE7E202-9C6C-46C2-A9D4-5D77ED987DD3}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EFE7E202-9C6C-46C2-A9D4-5D77ED987DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="24">
   <si>
     <t>GEOM</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Dimboli</t>
-  </si>
-  <si>
-    <t>badara</t>
   </si>
   <si>
     <t>Gabou</t>
@@ -278,20 +275,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,17 +305,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE19370-C6DF-4CF2-9D84-C7064051071C}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A87" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,7 +725,7 @@
       <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -755,7 +752,7 @@
       <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -780,7 +777,7 @@
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -792,22 +789,22 @@
       <c r="D6" s="5">
         <v>59</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="24">
         <v>143</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="24">
         <v>53</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="24">
         <v>107</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="24">
         <v>36</v>
       </c>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -817,14 +814,14 @@
       <c r="D7" s="5">
         <v>84</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -851,7 +848,7 @@
       <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
@@ -876,7 +873,7 @@
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -901,7 +898,7 @@
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -926,43 +923,43 @@
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="20">
         <v>192</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="20">
         <v>154</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="20">
         <v>152</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="20">
         <v>2</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="20">
         <v>86</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="20">
         <v>66</v>
       </c>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -1022,7 +1019,7 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1034,22 +1031,22 @@
       <c r="D16" s="5">
         <v>38</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="24">
         <v>108</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="24">
         <v>59</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="24">
         <v>70</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="24">
         <v>38</v>
       </c>
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
@@ -1059,14 +1056,14 @@
       <c r="D17" s="5">
         <v>70</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1093,7 +1090,7 @@
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
@@ -1118,7 +1115,7 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1145,7 +1142,7 @@
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
@@ -1170,43 +1167,43 @@
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="20">
         <v>118</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="20">
         <v>118</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="20">
         <v>107</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="20">
         <v>11</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="20">
         <v>73</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="20">
         <v>34</v>
       </c>
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -1266,7 +1263,7 @@
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1278,22 +1275,22 @@
       <c r="D26" s="5">
         <v>35</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="24">
         <v>94</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="24">
         <v>48</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="24">
         <v>59</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="24">
         <v>35</v>
       </c>
       <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
@@ -1303,14 +1300,14 @@
       <c r="D27" s="5">
         <v>59</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1337,7 +1334,7 @@
       <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
@@ -1362,7 +1359,7 @@
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1389,7 +1386,7 @@
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A31" s="15"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
@@ -1414,43 +1411,43 @@
       <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="20">
         <v>108</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="20">
         <v>106</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="20">
         <v>52</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="20">
         <v>54</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="20">
         <v>34</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="20">
         <v>18</v>
       </c>
       <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="20"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -2048,7 +2045,7 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2077,7 +2074,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="15"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="4" t="s">
         <v>20</v>
       </c>
@@ -2210,7 +2207,7 @@
       <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -2239,7 +2236,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="15"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="4" t="s">
         <v>20</v>
       </c>
@@ -2373,7 +2370,7 @@
     </row>
     <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>21</v>
@@ -2399,7 +2396,7 @@
       <c r="I68" s="18"/>
     </row>
     <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -2428,9 +2425,9 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="15"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" s="4">
         <v>76</v>
@@ -2453,7 +2450,7 @@
       <c r="I70" s="18"/>
     </row>
     <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="15"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="4" t="s">
         <v>21</v>
       </c>
@@ -2586,7 +2583,7 @@
       <c r="I75" s="18"/>
     </row>
     <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -2615,9 +2612,9 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="15"/>
+      <c r="A77" s="14"/>
       <c r="B77" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C77" s="4">
         <v>76</v>
@@ -2640,7 +2637,7 @@
       <c r="I77" s="18"/>
     </row>
     <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="15"/>
+      <c r="A78" s="14"/>
       <c r="B78" s="4" t="s">
         <v>21</v>
       </c>
@@ -2716,14 +2713,14 @@
       <c r="H80" s="4">
         <v>17</v>
       </c>
-      <c r="I80" s="24"/>
+      <c r="I80" s="19"/>
     </row>
     <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81" s="4">
         <v>188</v>
@@ -2743,14 +2740,14 @@
       <c r="H81" s="7">
         <v>68</v>
       </c>
-      <c r="I81" s="22">
+      <c r="I81" s="16">
         <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="15"/>
+      <c r="A82" s="14"/>
       <c r="B82" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C82" s="4">
         <v>153</v>
@@ -2770,7 +2767,7 @@
       <c r="H82" s="7">
         <v>51</v>
       </c>
-      <c r="I82" s="23"/>
+      <c r="I82" s="17"/>
     </row>
     <row r="83" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
@@ -2797,14 +2794,14 @@
       <c r="H83" s="4">
         <v>44</v>
       </c>
-      <c r="I83" s="23"/>
+      <c r="I83" s="17"/>
     </row>
     <row r="84" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C84" s="4">
         <v>212</v>
@@ -2824,10 +2821,10 @@
       <c r="H84" s="4">
         <v>59</v>
       </c>
-      <c r="I84" s="23"/>
+      <c r="I84" s="17"/>
     </row>
     <row r="85" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -2851,12 +2848,12 @@
       <c r="H85" s="4">
         <v>98</v>
       </c>
-      <c r="I85" s="23"/>
+      <c r="I85" s="17"/>
     </row>
     <row r="86" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="17"/>
+      <c r="A86" s="15"/>
       <c r="B86" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86" s="4">
         <v>135</v>
@@ -2872,14 +2869,14 @@
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="23"/>
+      <c r="I86" s="17"/>
     </row>
     <row r="87" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" s="4">
         <v>280</v>
@@ -2899,7 +2896,7 @@
       <c r="H87" s="4">
         <v>48</v>
       </c>
-      <c r="I87" s="23"/>
+      <c r="I87" s="17"/>
     </row>
     <row r="88" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B88" s="13"/>
@@ -2909,25 +2906,33 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="I81:I87"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="I62:I68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="I69:I75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="I76:I80"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="I56:I61"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="I34:I40"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="I49:I55"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="I2:I13"/>
     <mergeCell ref="I14:I23"/>
     <mergeCell ref="I24:I33"/>
@@ -2944,33 +2949,25 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="I56:I61"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="I34:I40"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="I49:I55"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="I81:I87"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="I62:I68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="I69:I75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="I76:I80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
